--- a/flood_risk.xlsx
+++ b/flood_risk.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python_programming\fiver_task\mmartinder_env\mmartinder\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20265" windowHeight="6930"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="flood_risk" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -54,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,7 +61,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,14 +113,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -410,21 +400,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -459,6 +442,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>